--- a/ps/junit性能测试.xlsx
+++ b/ps/junit性能测试.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$40</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="165">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +527,94 @@
   </si>
   <si>
     <t>bf，IO读取一个22.4k的pom文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24781613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123065495</t>
+  </si>
+  <si>
+    <t>execute(Runnable)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Runnable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25086504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124529408</t>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdk1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3720413</t>
+  </si>
+  <si>
+    <t>17984482</t>
+  </si>
+  <si>
+    <t>2798385</t>
+  </si>
+  <si>
+    <t>13622542</t>
+  </si>
+  <si>
+    <t>357220</t>
+  </si>
+  <si>
+    <t>1732519</t>
+  </si>
+  <si>
+    <t>array list 100对象 
+parallelStream().forEach(lambda)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list 100对象
+ stream().forEach(lambda)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array list 100对象 
+stream().forEach(lambda)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list 100对象 
+parallelStream().forEach(lambda)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305644</t>
+  </si>
+  <si>
+    <t>1469542</t>
+  </si>
+  <si>
+    <t>array list 100对象 
+for(...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list 100对象
+for(...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,6 +676,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,662 +974,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="34.5" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:6" ht="33" customHeight="1">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.75" customHeight="1">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6" ht="21.75" customHeight="1">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:6">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:6">
+      <c r="C7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:6">
+      <c r="C8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:6">
+      <c r="D9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:6">
+      <c r="C10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:6">
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:6">
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" ht="27">
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27">
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27">
+      <c r="A18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27">
+      <c r="A19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27">
+      <c r="A20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27">
+      <c r="A21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+    <row r="24" spans="1:6">
+      <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+    <row r="25" spans="1:6">
+      <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
+    <row r="26" spans="1:6">
+      <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+    <row r="27" spans="1:6">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+    <row r="28" spans="1:6">
+      <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+    <row r="29" spans="1:6">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+    <row r="30" spans="1:6">
+      <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+    <row r="31" spans="1:6">
+      <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+    <row r="32" spans="1:6">
+      <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
+    <row r="34" spans="2:6">
+      <c r="B34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="1" t="s">
+    <row r="35" spans="2:6">
+      <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="1" t="s">
+    <row r="36" spans="2:6">
+      <c r="C36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="B33" s="1" t="s">
+    <row r="37" spans="2:6">
+      <c r="C37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="B34" s="1" t="s">
+    <row r="38" spans="2:6">
+      <c r="C38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="1" t="s">
+    <row r="39" spans="2:6">
+      <c r="C39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="1" t="s">
+    <row r="40" spans="2:6">
+      <c r="C40" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
+    <row r="41" spans="2:6">
+      <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="1" t="s">
+    <row r="42" spans="2:6">
+      <c r="C42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="B39" s="1" t="s">
+    <row r="43" spans="2:6">
+      <c r="C43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="C40" s="1" t="s">
+    <row r="44" spans="2:6">
+      <c r="D44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="B41" s="1" t="s">
+    <row r="45" spans="2:6">
+      <c r="C45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="C42" s="1" t="s">
+    <row r="46" spans="2:6">
+      <c r="D46" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="C43" s="1" t="s">
+    <row r="47" spans="2:6">
+      <c r="D47" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>140</v>
       </c>
     </row>
+    <row r="48" spans="2:6">
+      <c r="C48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E36"/>
+  <autoFilter ref="B1:F40"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/ps/junit性能测试.xlsx
+++ b/ps/junit性能测试.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$40</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -976,8 +976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ps/junit性能测试.xlsx
+++ b/ps/junit性能测试.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="168">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,6 +615,18 @@
   </si>
   <si>
     <t>组0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper.save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>451</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,11 +986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1639,108 +1651,125 @@
       </c>
     </row>
     <row r="42" spans="2:6">
+      <c r="B42" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="C43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="C44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
-      <c r="D44" s="1" t="s">
+    <row r="45" spans="2:6">
+      <c r="D45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
-      <c r="C45" s="1" t="s">
+    <row r="46" spans="2:6">
+      <c r="C46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="D46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="D47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="D48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
-      <c r="C48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C49" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>147</v>
       </c>
     </row>
